--- a/src/analysis_examples/circadb/results_jtk/cosinor_10431300_alg12_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10431300_alg12_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.24412804161225837, 0.37348908518558793]</t>
+          <t>[0.24488806883782965, 0.37272905796001665]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.195188253395486e-09</v>
+        <v>1.784907777135913e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>2.195188253395486e-09</v>
+        <v>1.784907777135913e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-0.779894872963232</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, -0.5786316799404627]</t>
+          <t>[-0.9937370155499243, -0.5660527303765397]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.32589249263782e-08</v>
+        <v>1.915758078840923e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>7.32589249263782e-08</v>
+        <v>1.915758078840923e-07</v>
       </c>
       <c r="S2" t="n">
         <v>0.4140002262075151</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.38109685381044534, 0.44690359860458495]</t>
+          <t>[0.381142218072347, 0.4468582343426833]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.225985985986103</v>
       </c>
       <c r="X2" t="n">
-        <v>2.393473473473562</v>
+        <v>2.341441441441528</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.058498498498644</v>
+        <v>4.110530530530678</v>
       </c>
     </row>
   </sheetData>
